--- a/Assets/Data/Map/Map001.xlsx
+++ b/Assets/Data/Map/Map001.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiroyuki\Documents\hkCatProject001\Assets\Data\Map\"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="11">
   <si>
     <t>null</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,25 @@
   </si>
   <si>
     <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TrickBlock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>W</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -430,53 +449,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1">
-        <f>COLUMN(H18)-COLUMN()</f>
-        <v>7</v>
+        <f>COLUMN(I18)</f>
+        <v>9</v>
       </c>
       <c r="B1">
         <f>ROW(A18)-ROW()</f>
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>0</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -499,10 +521,13 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -519,16 +544,19 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -545,16 +573,19 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -568,8 +599,8 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -577,10 +608,13 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>0</v>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -594,8 +628,8 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -603,10 +637,13 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>0</v>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -629,10 +666,13 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>0</v>
+      <c r="I8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -640,14 +680,14 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -655,10 +695,13 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>0</v>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -669,8 +712,8 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -681,10 +724,13 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>0</v>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -695,8 +741,8 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -707,10 +753,13 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>0</v>
+      <c r="I11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -721,8 +770,8 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -733,10 +782,13 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>0</v>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -744,11 +796,11 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -759,25 +811,28 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>0</v>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -785,16 +840,19 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>0</v>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -811,10 +869,13 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>0</v>
+      <c r="I15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -822,14 +883,14 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -837,10 +898,13 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>0</v>
+      <c r="I16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -863,31 +927,37 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
+      <c r="I17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -952,6 +1022,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
